--- a/convertExcel/funfacts.xlsx
+++ b/convertExcel/funfacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC0094-C83C-40EF-B511-3416DA635250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F9891E-F084-4845-9E83-F6918C893FE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="8722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="1" r:id="rId1"/>
@@ -439,9 +439,6 @@
     <t>Every healthy human heart beats more than 100,000 times a day!</t>
   </si>
   <si>
-    <t>40% of McDonalds entire profit comes from the sale of Happy Meals.</t>
-  </si>
-  <si>
     <t>Arabic numbers are actually not Arabic; the numbers were invented in fact in India.</t>
   </si>
   <si>
@@ -655,15 +652,6 @@
     <t>The oldest evidence of manmade fire dates back 300,000 to 400,000 years. \nRecently archeologists discovered traces of campfires from 1 million years ago.</t>
   </si>
   <si>
-    <t>For over 30 years, Canada and Denmark have been fighting for control of Hans Island near Greenland.\n When officials from each country visit, \nthey leave a bottle of their country’s liquor as a power move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The British Empire is the largest empire in worlds history.\n The British Empire was most powerful in the 1920s when it ruled over 23 percent of the world’s population. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Eiffel Tower was built from 1887 to 1889 by French engineer Gustave Eiffel.\n The tower was later named after Mr. Eiffel. </t>
-  </si>
-  <si>
     <t>From 1912 to 1948, the Olympic Games held competitions in the fine arts. \nMedals were given for literature, architecture, sculpture, painting, and music.</t>
   </si>
   <si>
@@ -676,9 +664,6 @@
     <t>The song Baby Shark is YouTube’s most viewed video ever.\n It has been viewed more than 7 billion times since its release in 2016.</t>
   </si>
   <si>
-    <t>The first email was sent as early as 1971.\n The sender, Ray Tomilinson,was the inventor of email and he sent the email to himself.</t>
-  </si>
-  <si>
     <t>The internet weighs as much as a strawberry.\n That is the weight of billions of electrons of data in motion on the web.</t>
   </si>
   <si>
@@ -712,18 +697,9 @@
     <t xml:space="preserve">A report from 2019 shows that on average every person spends 6 hours\n and 42 minutes online each day. </t>
   </si>
   <si>
-    <t>In 2016 over 15 billion Internet-connected devices \nwere shipped across the globe!</t>
-  </si>
-  <si>
-    <t>The most popular use of the internet is Electronic mail.\n At least 85% of internet users send and receive e-mail. Approximately 20 million e-mails are sent every week.</t>
-  </si>
-  <si>
     <t>The first webcam video is from the University of Cambridge.\n The subject of the first live video feed was a coffee pot.</t>
   </si>
   <si>
-    <t>A smart home is a home that is connected to the internet and can be controlled by a personal device. \nThere are currently 150 million smart homes around the globe.</t>
-  </si>
-  <si>
     <t>Asia has the most internet users with more than 35% of the total number. \nEurope ranks second with around 30% and the US ranks third with around 20%.</t>
   </si>
   <si>
@@ -748,9 +724,6 @@
     <t>The dust from the Sahara Desert travels over the \nAtlantic all the way to the Amazon Forrest on the other side of the world. \nThe Rain forest needs the dust in order to flourish.</t>
   </si>
   <si>
-    <t>A new type of stone has been discovered in the ocean. \nThe stone was created from stray plastic.</t>
-  </si>
-  <si>
     <t>Organic farming is not always better for the environment than conventional farming.\n This is partialy due to lower crop yields and the use of toxic "natural" pesticides.</t>
   </si>
   <si>
@@ -775,12 +748,6 @@
     <t>In 2015, a Canadian astronaut named Chris Hadfield released his first album,\n which was entirely recorded while he was in outer space.</t>
   </si>
   <si>
-    <t>A study from 2013 shows that music Helps People \nwith Brain Injuries Recall Personal Memories.</t>
-  </si>
-  <si>
-    <t>The life expectancy of an artist is 25 years lower than average. \nThat's because many musicians suffer from depression and lead a rough life.</t>
-  </si>
-  <si>
     <t>Plants can grow faster when they listen to music. \nResearch shows that plants particularly appreciate Beethoven and Chopin.</t>
   </si>
   <si>
@@ -790,15 +757,9 @@
     <t>Termites love rock music, according to Australian researchers\n they eat the wood twice as fast when exposed to Heavy Metal music.</t>
   </si>
   <si>
-    <t>In 2008, researchers discovered that loud \nmusic makes people drink faster.</t>
-  </si>
-  <si>
     <t>Mozart has a chocolate brand named after him called \nMozartkugel or Mozart ball. The chocolate is very popular in Austria.</t>
   </si>
   <si>
-    <t>Research shows that babies become twice as calm from listening to music as from listening to a voice. \nThey especially prefer quiet music such as children's songs, \nclassical music and smooth jazz.</t>
-  </si>
-  <si>
     <t>Eminem’s song “Rap God” has the world record for most \nwords in a song, at 1,560 words. An average of 4.28 words per second.</t>
   </si>
   <si>
@@ -817,15 +778,9 @@
     <t>The first living creature in space was a dog named Laika.\n She was taken from the street by Russians and sent to space with the Sputnik 2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Theories suggest that when Earth was a relatively young planet,\n it was struck by a giant object and this collision broke a piece of the Earth away to create the moon. </t>
-  </si>
-  <si>
     <t>For years, Earth was believed to be the only planet in our\n solar system with liquid water. Recently, NASA revealed that there is \noccasional running water on Mars!</t>
   </si>
   <si>
-    <t xml:space="preserve">Thanks to 3D printing, NASA can basically “email” tools to astronauts.\n The necessary tools are designed and sent to the 3D printers to be printed in space. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> The difference between an asteroid and a comet is the composition. \nAsteroides are usually made of stone and metal, while comets also contain ice,\n particulate matter and organic matter.</t>
   </si>
   <si>
@@ -838,9 +793,6 @@
     <t>80,000 hours of video footage is uploaded to YouTube every day.\n Most of the footage is videos of pets.</t>
   </si>
   <si>
-    <t>One in ten young people was bullied on the internet last year. \nThey were victims of slander, stalking, threats and blackmail.</t>
-  </si>
-  <si>
     <t>The most common form of cyberbullying is slander.\n Slander is the use of hurtful texts or distributing photos and videos.</t>
   </si>
   <si>
@@ -878,9 +830,6 @@
   </si>
   <si>
     <t>Farm-raised salmon have a different diet then wild salmon so \nthey end up being white instead of pink. The farm raised salmon is then dyed\n pink so it’s more appealing to buyers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expiration dates on bottled water have nothing to do with the water. \nThe expiration date is for the bottle that the water is in. n. </t>
   </si>
   <si>
     <t>If you need to test the freshness of your eggs, put them in a glass of cold water.\n The fresher the egg, the faster it will fall to the bottom! \nAny eggs that float should be thrown out.</t>
@@ -1002,6 +951,57 @@
   </si>
   <si>
     <t>The human brain is made up of approximately 75% water.</t>
+  </si>
+  <si>
+    <t>The Eiffel Tower was built from 1887 to 1889 by French engineer Gustave Eiffel.\n The tower was later named after him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The British Empire is the largest empire in worlds history.\n The British Empire was most powerful in the 1920s when it ruled over 23 \npercent of the world’s population. </t>
+  </si>
+  <si>
+    <t>For over 30 years, Canada and Denmark have been \nfighting for control of Hans Island near Greenland. When officials from each country visit, \nthey leave a bottle of their country’s liquor as a power move.</t>
+  </si>
+  <si>
+    <t>The first email was sent as early as 1971.\n The sender, Ray Tomilinson, was the inventor of email and he sent the email to himself.</t>
+  </si>
+  <si>
+    <t>In 2016 over 15 billion Internet-connected devices were shipped across the globe!</t>
+  </si>
+  <si>
+    <t>The most popular use of the internet is Electronic mail.\n At least 85% of internet users send and receive e-mail. \nApproximately 20 million e-mails are sent every week.</t>
+  </si>
+  <si>
+    <t>A smart home is a home that is connected to the internet\n and can be controlled by a personal device. There are currently\n 150 million smart homes around the globe.</t>
+  </si>
+  <si>
+    <t>A new type of stone has been discovered in the ocean. \nThe stone was created from plastic waste.</t>
+  </si>
+  <si>
+    <t>Expiration dates on bottled water have nothing to do with the water. \nThe expiration date is for the bottle that the water is in.</t>
+  </si>
+  <si>
+    <t>40% of McDonalds entire profit comes from the sale of their Happy Meals.</t>
+  </si>
+  <si>
+    <t>A study from 2013 shows that music Helps People \nwith Brain Injuries Recall personal memories.</t>
+  </si>
+  <si>
+    <t>The life expectancy of an artist is 25 years lower than the average. \nThat's because many musicians suffer from depression and lead a rough life.</t>
+  </si>
+  <si>
+    <t>In 2008, researchers discovered that loud music makes people drink faster.</t>
+  </si>
+  <si>
+    <t>Research shows that babies become twice as calm from\n listening to music as from listening to a voice. They especially prefer \nquiet music such as children's songs, classical music or smooth jazz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theories suggest that when Earth was a relatively young planet,\n it was struck by a giant object and this collision broke a piece\n of the Earth away to create the moon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks to 3D printing, NASA can basically “email” tools to astronauts.\n The necessary tools are designed and sent to the 3D printers to be printed in outer space. </t>
+  </si>
+  <si>
+    <t>One in ten young people were bullied on the internet last year. \nThey were victims of slander, stalking, threats and blackmail.</t>
   </si>
 </sst>
 </file>
@@ -1462,6 +1462,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1470,85 +1549,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,533 +1839,533 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="A1:Q10"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49">
+      <c r="B1" s="46">
         <v>1</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="46">
         <v>2</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="46">
         <v>3</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="46">
         <v>4</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="46">
         <v>5</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="46">
         <v>6</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="46">
         <v>7</v>
       </c>
-      <c r="I1" s="50">
+      <c r="I1" s="47">
         <v>8</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="47">
         <v>9</v>
       </c>
-      <c r="K1" s="51">
+      <c r="K1" s="48">
         <v>10</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="46">
         <v>11</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="46">
         <v>12</v>
       </c>
-      <c r="N1" s="49">
+      <c r="N1" s="46">
         <v>13</v>
       </c>
-      <c r="O1" s="49">
+      <c r="O1" s="46">
         <v>14</v>
       </c>
-      <c r="P1" s="49">
+      <c r="P1" s="46">
         <v>15</v>
       </c>
       <c r="Q1" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:28" ht="285" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="B2" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="54" t="s">
+      <c r="L2" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="N2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:28" ht="399" x14ac:dyDescent="0.45">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="B3" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" s="58" t="s">
+      <c r="I3" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="60" t="s">
+      <c r="O3" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="54"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:28" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" s="59" t="s">
+      <c r="B4" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="62"/>
+      <c r="P4" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="59"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="N5" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="O5" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="P5" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="62"/>
+      <c r="Q5" s="59"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="O6" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="P6" s="65" t="s">
+      <c r="L6" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="P6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="62"/>
+      <c r="Q6" s="59"/>
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="53" t="s">
+      <c r="B7" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="M7" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="68" t="s">
-        <v>304</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q7" s="62"/>
+      <c r="N7" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="59"/>
       <c r="Y7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="O8" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="B8" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" ht="384.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="53" t="s">
+      <c r="B9" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="K9" s="57" t="s">
+      <c r="F9" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="N9" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="O9" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="P9" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q9" s="64" t="s">
+      <c r="L9" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="61" t="s">
         <v>6</v>
       </c>
       <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="1:28" ht="285" x14ac:dyDescent="0.45">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="I10" s="57" t="s">
+      <c r="J10" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="M10" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="J10" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="71" t="s">
-        <v>289</v>
-      </c>
-      <c r="M10" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="N10" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="O10" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="P10" s="73" t="s">
+      <c r="N10" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="P10" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" s="74" t="s">
-        <v>291</v>
+      <c r="Q10" s="71" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +2458,7 @@
         <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>47</v>
@@ -2467,10 +2467,10 @@
         <v>54</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>76</v>
@@ -2479,7 +2479,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>30</v>
@@ -2488,7 +2488,7 @@
         <v>59</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R2" s="9"/>
     </row>
@@ -2500,10 +2500,10 @@
         <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>36</v>
@@ -2518,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>22</v>
@@ -2533,13 +2533,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="301.89999999999998" x14ac:dyDescent="0.45">
@@ -2550,25 +2550,25 @@
         <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>78</v>
@@ -2586,13 +2586,13 @@
         <v>71</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>57</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R4" s="8"/>
     </row>
@@ -2613,19 +2613,19 @@
         <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>72</v>
@@ -2643,7 +2643,7 @@
         <v>48</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="32" t="s">
         <v>90</v>
@@ -2657,16 +2657,16 @@
         <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>44</v>
@@ -2675,13 +2675,13 @@
         <v>49</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>68</v>
@@ -2693,13 +2693,13 @@
         <v>58</v>
       </c>
       <c r="O6" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
@@ -2713,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>79</v>
@@ -2722,19 +2722,19 @@
         <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="L7" s="24" t="s">
         <v>63</v>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>50</v>
@@ -2763,10 +2763,10 @@
         <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
@@ -2775,34 +2775,34 @@
         <v>39</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="275.64999999999998" x14ac:dyDescent="0.45">
@@ -2816,10 +2816,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>40</v>
@@ -2834,28 +2834,28 @@
         <v>87</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="O9" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="P9" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="Q9" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>193</v>
       </c>
       <c r="R9" s="28" t="s">
         <v>52</v>
@@ -2869,16 +2869,16 @@
         <v>102</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>93</v>
@@ -2887,7 +2887,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>34</v>
@@ -2899,10 +2899,10 @@
         <v>64</v>
       </c>
       <c r="M10" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>199</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>94</v>
@@ -2950,16 +2950,16 @@
       <c r="C1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">

--- a/convertExcel/funfacts.xlsx
+++ b/convertExcel/funfacts.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F9891E-F084-4845-9E83-F6918C893FE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49D1FE4-FE68-4970-8792-0D4FF1EA4839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="8722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="1" r:id="rId1"/>
     <sheet name="hebrew" sheetId="3" r:id="rId2"/>
-    <sheet name="removedFacts" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="removedFacts" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="321">
   <si>
     <t>category</t>
   </si>
@@ -1002,6 +1003,9 @@
   </si>
   <si>
     <t>One in ten young people were bullied on the internet last year. \nThey were victims of slander, stalking, threats and blackmail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לירח אין אטמוספירה, לכן אין אוויר שישחק את האדמה ואין מים שישטפו את הקרקע. מכאן שעקבות אסטרונאוטים יישארו על ירח לאלפי שנים. </t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1947,7 +1951,7 @@
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
     </row>
-    <row r="3" spans="1:28" ht="399" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A3" s="49" t="s">
         <v>97</v>
       </c>
@@ -1996,7 +2000,7 @@
       <c r="P3" s="59"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:28" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A4" s="49" t="s">
         <v>98</v>
       </c>
@@ -2105,7 +2109,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A6" s="49" t="s">
         <v>99</v>
       </c>
@@ -2261,7 +2265,7 @@
       <c r="Q8" s="59"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A9" s="49" t="s">
         <v>103</v>
       </c>
@@ -2380,10 +2384,10 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="A1:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2924,6 +2928,566 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52965FE2-7753-40B8-A5CB-114A733C17A5}">
+  <dimension ref="A29:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="183.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="204" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="236.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="216.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="204" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="223.15" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="236.25" x14ac:dyDescent="0.45">
+      <c r="A38" s="10">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="236.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="10">
+        <v>9</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="288.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="10">
+        <v>10</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A41" s="10">
+        <v>11</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A42" s="10">
+        <v>12</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A43" s="10">
+        <v>13</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="275.64999999999998" x14ac:dyDescent="0.45">
+      <c r="A44" s="10">
+        <v>14</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="301.89999999999998" x14ac:dyDescent="0.45">
+      <c r="A45" s="10">
+        <v>15</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.45">
+      <c r="A46" s="10">
+        <v>16</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="I46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C0FF40-061A-4942-A5B8-C1DE892A3174}">
   <dimension ref="A1:K5"/>
   <sheetViews>

--- a/convertExcel/funfacts.xlsx
+++ b/convertExcel/funfacts.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49D1FE4-FE68-4970-8792-0D4FF1EA4839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AEDF8-0653-4D00-B838-2E34EBBED763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="1" r:id="rId1"/>
     <sheet name="hebrew" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="removedFacts" sheetId="2" r:id="rId4"/>
+    <sheet name="removedFacts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="320">
   <si>
     <t>category</t>
   </si>
@@ -467,9 +466,6 @@
     <t xml:space="preserve">חסילון הוא החיה הרועשת בעולם וגבהה רק שני ס"מ! הצליל שהחסילון משמיע כשהוא מקיש בצבתותיו עולה על 218 דציבלים וחזק יותר מרעש של אקדח. </t>
   </si>
   <si>
-    <t>אלברט איינשטיין היה יהודי. אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב.</t>
-  </si>
-  <si>
     <t>האפיפיור בנדיקט התשיעי היה האפיפיור הצעיר ביותר בעולם בגיל 11. הוא שירת כאפיפיור בין השנים 1032 ל1048.</t>
   </si>
   <si>
@@ -488,9 +484,6 @@
     <t>כ204 מיליון אימיילים נשלחים כל דקה באינטרנט. 70% מהאימיילים הנשלחים הם ספאם.</t>
   </si>
   <si>
-    <t xml:space="preserve">גוגל מעבד עד 100 ביליון חיפושים בחודש! כלומר בכל שניה מתבצעים בממוצע 40,000 חיפושים. </t>
-  </si>
-  <si>
     <t>עד 300,000 אתרי אינטרנט נפרצים בכל יום. פושעי סייבר נעזרים בתוכנות מחשב משוכללות לפרוץ באופן אוטומטי לאתרים פגיעים.</t>
   </si>
   <si>
@@ -621,9 +614,6 @@
   </si>
   <si>
     <t>מנהג הרמת כוס  התחילה בתקופת הרומאים. באותה תקופה, נהגו רומאים רבים להרעיל זה את זה. בהרמת כוס בעוצמה רבה - חלק מהמשקה מועבר מכוס לכוס וכך השותה מוודא שמשקעו לא הורעל.</t>
-  </si>
-  <si>
-    <t>תינוקות נולדים ללא ברכיים. הן לא מופיעות עד שהילד בין שנתיים ל-6 שנים.</t>
   </si>
   <si>
     <t xml:space="preserve">המוח הוא איבר מקומט מאוד! אם פורשים אותו, המוח יהיה בערך בגודל ציפית של כרית. </t>
@@ -1005,7 +995,13 @@
     <t>One in ten young people were bullied on the internet last year. \nThey were victims of slander, stalking, threats and blackmail.</t>
   </si>
   <si>
-    <t xml:space="preserve">לירח אין אטמוספירה, לכן אין אוויר שישחק את האדמה ואין מים שישטפו את הקרקע. מכאן שעקבות אסטרונאוטים יישארו על ירח לאלפי שנים. </t>
+    <t>תינוקות נולדים ללא פיקת ברכיים. הן לא מופיעות עד שהילד בין שנתיים ל-6 שנים.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">גוגל מעבדת עד 100 מיליארד חיפושים בחודש! כלומר בכל שניה מתבצעים בממוצע 40,000 חיפושים. </t>
+  </si>
+  <si>
+    <t>אלברט איינשטיין היה יהודי. 9987 אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב.</t>
   </si>
 </sst>
 </file>
@@ -1340,99 +1336,11 @@
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,6 +1461,96 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1852,524 +1850,524 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46">
+      <c r="B1" s="16">
         <v>1</v>
       </c>
-      <c r="C1" s="46">
+      <c r="C1" s="16">
         <v>2</v>
       </c>
-      <c r="D1" s="46">
+      <c r="D1" s="16">
         <v>3</v>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="16">
         <v>4</v>
       </c>
-      <c r="F1" s="46">
+      <c r="F1" s="16">
         <v>5</v>
       </c>
-      <c r="G1" s="46">
+      <c r="G1" s="16">
         <v>6</v>
       </c>
-      <c r="H1" s="46">
+      <c r="H1" s="16">
         <v>7</v>
       </c>
-      <c r="I1" s="47">
+      <c r="I1" s="17">
         <v>8</v>
       </c>
-      <c r="J1" s="47">
+      <c r="J1" s="17">
         <v>9</v>
       </c>
-      <c r="K1" s="48">
+      <c r="K1" s="18">
         <v>10</v>
       </c>
-      <c r="L1" s="46">
+      <c r="L1" s="16">
         <v>11</v>
       </c>
-      <c r="M1" s="46">
+      <c r="M1" s="16">
         <v>12</v>
       </c>
-      <c r="N1" s="46">
+      <c r="N1" s="16">
         <v>13</v>
       </c>
-      <c r="O1" s="46">
+      <c r="O1" s="16">
         <v>14</v>
       </c>
-      <c r="P1" s="46">
+      <c r="P1" s="16">
         <v>15</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="285" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="1:28" ht="399" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-    </row>
-    <row r="3" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="I3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="O3" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="51"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="B4" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q4" s="59"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="P4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="29"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="G5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="H5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="I5" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="K5" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="M5" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="J5" s="55" t="s">
+      <c r="N5" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="O5" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="29"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="L5" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q5" s="59"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="G6" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="I6" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="J6" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="K6" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="I6" s="51" t="s">
+      <c r="N6" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="O6" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="K6" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="O6" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="AA6" s="5"/>
+      <c r="Q6" s="29"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="50" t="s">
+      <c r="I7" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="L7" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="O7" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="K7" s="55" t="s">
+      <c r="P7" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="L7" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="M7" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="59"/>
-      <c r="Y7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="Q7" s="29"/>
+      <c r="Y7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="B8" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="50" t="s">
+      <c r="C8" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="I8" s="53" t="s">
+      <c r="L8" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="M8" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="N8" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="O8" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" ht="384.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="C9" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="D9" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="E9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="G9" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="H9" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="I9" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="M9" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="N9" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="O9" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="I9" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="M9" s="55" t="s">
+      <c r="P9" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="N9" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="O9" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="P9" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AB9" s="5"/>
+      <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="285" x14ac:dyDescent="0.45">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="H10" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="J10" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="51" t="s">
+      <c r="K10" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="M10" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="J10" s="54" t="s">
+      <c r="O10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="41" t="s">
         <v>271</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="M10" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="O10" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="P10" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="71" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2383,541 +2381,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449B4987-24CE-40C9-AE43-0C2DF0653AF4}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="A1:R10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="46">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="46">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="46">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="46">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="46">
         <v>5</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="46">
         <v>6</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="46">
         <v>7</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="47">
         <v>8</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="47">
         <v>9</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="47">
         <v>10</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="47">
         <v>11</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="47">
         <v>12</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="47">
         <v>13</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="47">
         <v>14</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="47">
         <v>15</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="236.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="288.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="30" t="s">
+      <c r="O3" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>146</v>
-      </c>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="1:18" ht="301.89999999999998" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="P4" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" s="8"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="1:18" ht="255" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="J5" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="23" t="s">
+      <c r="K5" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="68" t="s">
         <v>90</v>
       </c>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G6" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="32" t="s">
+      <c r="Q6" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>169</v>
-      </c>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="72" t="s">
         <v>91</v>
       </c>
+      <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="H8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="M8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="O8" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>183</v>
-      </c>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" ht="275.64999999999998" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="K9" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="N9" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="25" t="s">
+      <c r="O9" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="P9" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="Q9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="R9" s="28" t="s">
+      <c r="R9" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="216.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="N10" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="62" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2928,566 +2935,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52965FE2-7753-40B8-A5CB-114A733C17A5}">
-  <dimension ref="A29:J46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="183.75" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="204" x14ac:dyDescent="0.45">
-      <c r="A32" s="2">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="236.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="216.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="204" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="223.15" x14ac:dyDescent="0.45">
-      <c r="A37" s="2">
-        <v>7</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="236.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="10">
-        <v>8</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="236.25" x14ac:dyDescent="0.45">
-      <c r="A39" s="10">
-        <v>9</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="288.75" x14ac:dyDescent="0.45">
-      <c r="A40" s="10">
-        <v>10</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A41" s="10">
-        <v>11</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="10">
-        <v>12</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A43" s="10">
-        <v>13</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="275.64999999999998" x14ac:dyDescent="0.45">
-      <c r="A44" s="10">
-        <v>14</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="301.89999999999998" x14ac:dyDescent="0.45">
-      <c r="A45" s="10">
-        <v>15</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="78.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="10">
-        <v>16</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="D46" s="8"/>
-      <c r="I46" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C0FF40-061A-4942-A5B8-C1DE892A3174}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3500,112 +2947,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="41"/>
-    <col min="3" max="3" width="9.06640625" style="40"/>
+    <col min="1" max="1" width="9.06640625" style="11"/>
+    <col min="3" max="3" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="12" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
@@ -3614,40 +3061,40 @@
       <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="36"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/convertExcel/funfacts.xlsx
+++ b/convertExcel/funfacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0AEDF8-0653-4D00-B838-2E34EBBED763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C360B-95A7-44C1-A345-5BC1C4DE351A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">גוגל מעבדת עד 100 מיליארד חיפושים בחודש! כלומר בכל שניה מתבצעים בממוצע 40,000 חיפושים. </t>
   </si>
   <si>
-    <t>אלברט איינשטיין היה יהודי. 9987 אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב.</t>
+    <t>אלברט איינשטיין היה יהודי. \n אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב.</t>
   </si>
 </sst>
 </file>
@@ -1463,94 +1463,94 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+      <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1902,7 +1902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" ht="285" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>96</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
     </row>
-    <row r="3" spans="1:28" ht="399" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>97</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>99</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="Q8" s="29"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>103</v>
       </c>

--- a/convertExcel/funfacts.xlsx
+++ b/convertExcel/funfacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\PycharmProjects\FacultyGamePhaser\convertExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C360B-95A7-44C1-A345-5BC1C4DE351A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08F7DF7-040D-4BA6-BBA6-98B43F0AF533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,139 +92,7 @@
     <t>גוף האדם</t>
   </si>
   <si>
-    <t>דולפינים יכולים להסתכל לשני כיוונים שונים בו זמנית, כל עין לכיוון אחר. הם גם יכולים לישון עם עין אחת פתוחה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מספרים ערביים הם לא באמת בערבית. המספרים הומצאו בהודו. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">פני כדור הארץ מורכב מכ-60% מים ו-10% קרח. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">נצנוץ הכוכבים נגרם ע"י הבדלים בטמפרטורת האטמוספירה, המשפיעים על שבירת האור. </t>
-  </si>
-  <si>
-    <t>בשנות ה1830 קטשופ נמכר כתרופה. טענו כי קטשופ מרפא כל דבר, החל מקרחת וכלה בפריחות ואינפקציות.</t>
-  </si>
-  <si>
     <t>משך תקופת ההריון של פילים הוא 22 חודשים, זהו הזמן הארוך ביותר מכל החיות. משך ההריון הארוך ביותר בהיסטוריה לאדם הוא 12 חודשים ו10 ימים!</t>
-  </si>
-  <si>
-    <t>פלוץ של פרה פוגעת בסביבה יותר מכל חיה אחרת- כיוון שהרכב גז המתאן חזק פי 20 מפחמן דו חמצני.</t>
-  </si>
-  <si>
-    <t>שוקלד יכול להרוג כלבים. הוא משפיע ישירות על הלב ומערכת העצבים שלהם.</t>
-  </si>
-  <si>
-    <t>תאי מוח יכולים להתרבות עד 250,000 פעמים בדקה במהלך תחילת הריון.</t>
-  </si>
-  <si>
-    <t>העובדה ששפריריות יכולות לעוף עד מהירות של תשעים ושישה ק"מש, הופכת אותן לחרק המהיר ביותר בעולם. זה חשוב, כי אורך החיים שלהן הוא רק כ-עשרים וארבע שעות.</t>
-  </si>
-  <si>
-    <t>באוקיינוס התגלתה סוג אבן חדשה שנוצרה משאריות פלסטיק.</t>
-  </si>
-  <si>
-    <t>נוגה הוא כוכב הלכת היחיד במערכת השמש שלנו שמסתובב עם כיוון השעון.</t>
-  </si>
-  <si>
-    <t>ב-14 (ארבעה עשר) בפברואר 2019 - יוטיוב חגגה 15 (חמש עשרה) שנים להיווסדה. עובדה שרבים לא יודעים היא כי יוטיוב פותחה לראשונה כאתר היכרויות.</t>
-  </si>
-  <si>
-    <t>25% מעצמות בני האדם נמצאים ברגליו. הרגל נחשבת מורכבת כל כך מכיוון שהיא חייבת להיות מסוגלת לשאת את כל משקלו של האדם.</t>
-  </si>
-  <si>
-    <t>ג'ירפות וחולדות יכולות לשרוד בלי מים לתקופה ארוכה יותר מגמלים.</t>
-  </si>
-  <si>
-    <t>המגדל הנטוי של פיזה לעולם לא עמד זקוף. היוא תוכנן זקוף אך התחיל להטות כבר בשלבי הבניה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חקלאות אורגנית אינה תמיד טובה יותר לסביבה מחקלאות קונבנציונלית. הסיבה נובעת באופן חלקי מתפוקת יבול נמוכה יותר ושימוש בחומרי הדברה "טבעיים" רעילים. </t>
-  </si>
-  <si>
-    <t>כדור הארץ, הוא כוכב הלכת היחיד (במערכת השמש שלנו) שלא נקרא על שם אל.</t>
-  </si>
-  <si>
-    <t>בשנת 2020 "טי סיריס" תהיה סדרת היוטיוב הפופולרית ביותר בעולם. השם אולי לא מוכר לכם, זאת מכיוון שמדובר בלייבל מוזיקה מהודו.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ישנם כ-450 זני גבינה בעולם. 240 מהם מצרפת. </t>
-  </si>
-  <si>
-    <t>המח האנושי הוא כ-75% מים.</t>
-  </si>
-  <si>
-    <t>ביוון העתיקה, לבישת חצאית נחשבה כגברית ולבישת מכנסיים נחשבה לנשית.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">פארקים וסביבות "ירוקות" אחרות יכולים להפחית חרדות, מתח ותסמינים של הפרעות קשב וריכוז, ולקדם את בריאות הנפש הכללית. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">מחקר מ2013 מראה כי מוזיקה עוזרת לאנשים עם פגיעות שכליות לזכור זכרונות אישיים. </t>
-  </si>
-  <si>
-    <t>יותר אנשים אלרגיים לחלב פרה מכל מזון אחר. במיוחד באסיה, אנשים סובלים מכך מכיוון שחסר להם אינזים מסוים.</t>
-  </si>
-  <si>
-    <t>אדם נולד עם 300 עצמות, אך בגיל מבוגר יש לו רק 206.</t>
-  </si>
-  <si>
-    <t>משקלו של פיל נע בין 2700 ל6000 ק"ג. הפיל הוא החיה היחידה בעולם שלא יכולה לקפוץ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בכל יום נכרתים 27,000 עצים לייצור נייר טואלט. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">תוחלת החיים של אמן נמוכה ב-25 שנה מהממוצע. הסיבה לכך היא שמוסיקאים רבים סובלים מדיכאון ומנהלים חיים קשים. </t>
-  </si>
-  <si>
-    <t>נפח הירח (של כדור הארץ) זהה לנפח האוקיינוס השקט.</t>
-  </si>
-  <si>
-    <t>בכל יום מועלות ליוטיוב סך של 80,000 שעות צילומי וידיאו. רובן הן סרטונים של חיות מחמד.</t>
-  </si>
-  <si>
-    <t>לספגטי בודד קוראים ספגטו</t>
-  </si>
-  <si>
-    <t>עד 750 מ"ל דם נשאב דרך המוח בכל דקה. זה בערך 15-20% מהדם שמגיע מהלב.</t>
-  </si>
-  <si>
-    <t>לדב קואלה טביעת אצבע כמעט זהה לזו של בני אדם. העובדה הטעתה את המשטרה כבר מספר פעמים בעבר.</t>
-  </si>
-  <si>
-    <t>הלב דופק יותר מ100,000 פעמים ביום!</t>
-  </si>
-  <si>
-    <t>יום העצמאות ההולנדית נחגגת ב-5 למאי, אפילו שהולנד לא באמת שוחררה ביום אחד. העיר סכירמוניקוג שוחררה רק ביוני לאחר תום מלחמת העולם השניה.</t>
-  </si>
-  <si>
-    <t>כמות המכשירים המחוברים לאינטרנט גדולה מכמות האנשים בעולם!</t>
-  </si>
-  <si>
-    <t>מחקרים מראים כי בהאזנה למוזיקה, תינוקות נרגעים הרבה יותר מהאזנה לקול אדם. תינוקות מעדיפים בעיקר מוזיקה שקטה, כגון: שירי ילדים, מוזיקה קלאסית וג'אז.</t>
-  </si>
-  <si>
-    <t>פלמינגו הוא לא באמת חיה ורודה. הפלמינגו נולד בצבע אפרפר וכתוצאה מצבע המאכלים שנוהג לאכול, כמו שרימפס ואצה, הנוצות שלו מקבלות פיגמנט ורוד.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ניתן למחזר נייר עד 6 פעמים. לאחר מכן הסיבים חלשים מכדי להחזיק אותו. </t>
-  </si>
-  <si>
-    <t>בממוצע, לכל אדם 7.6 חשבונות מדיה חברתית.</t>
-  </si>
-  <si>
-    <t>בדיוק כמו טביעת אצבע- טביעת לשון של כל אדם שונה.</t>
-  </si>
-  <si>
-    <t>במשך שנים, האמינו כי כדור הארץ הוא כוכב הלכת היחיד במערכת השמש שלנו עם מים נוזליים. לאחרונה נאס"א חשפה שמידי פעם יש מים זורמים גם במאדים!</t>
-  </si>
-  <si>
-    <t>אנשים משתמשים בכ-72 שרירים שונים כדי לדבר.</t>
-  </si>
-  <si>
-    <t>הדגל האמריקני הנוכחי תוכנן על ידי תלמיד תיכון. הפרויקט זכה רק בציון 80 אך לאחר אישור התכנון לדגל אמריקה - המורה שינה את הציון ל100.</t>
   </si>
   <si>
     <t>לתמנון שלושה לבבות ותשעה מוחות. 
@@ -234,85 +102,7 @@
     <t>לתיאודור רוזוולט, הנשיא האמריקני הצעיר ביותר היה לו צבוע כחיית מחמד. שמו של הצבוע היה ביל והוא התקבל כמתנה מהקיסר האתיופי.</t>
   </si>
   <si>
-    <t>בשנת 2008 גילו חוקרים כי מוסיקה רועשת גורמת לאנשים לשתות מהר יותר.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">האימפריה הבריטית הייתה האימפריה הגדולה ביותר בתולדות העולם. האימפריה הבריטית הייתה החזקה ביותר בשנות העשרים של המאה העשרים כאשר שלטה על 23 אחוז מאוכלוסיית העולם. </t>
-  </si>
-  <si>
-    <t>סרטון הרשת הראשון הוא מאוניברסיטת קיימברידג'. נושא הסרטון היה סיר של קפה.</t>
-  </si>
-  <si>
-    <t>בית חכם הוא בית המחובר לאינטרנט וניתן לשלוט באביזרים בבית באמצעות מכשירים אישיים. ישנם כיום 150 מיליון בתים חכמים ברחבי העולם.</t>
-  </si>
-  <si>
-    <t>האבק ממדבר סהרה עובר מעל האוקיאנוס האטלנטי עד ליער האמזונס בצד השני של העולם. יער הגשם של האמזונס תלוי בזרחן שבאבק על מנת לפרוח.</t>
-  </si>
-  <si>
-    <t>למוצרט מותג שוקולד שנקרא על שמו בשם מוצרטקוגל או כדור מוצרט. השוקולד פופולרי מאוד באוסטריה.</t>
-  </si>
-  <si>
-    <t>הודות להדפסה תלת ממדית, נאס"א יכולה בעצם "לשלוח" כלים לאסטרונאוטים. הכלים הדרושים מתוכננים ונשלחים למדפסות התלת מימד להדפסה בחלל.</t>
-  </si>
-  <si>
-    <t>יותר ממחצית הצפיות ב- YouTube מגיעות ממכשירים ניידים. משך הצפייה הממוצע בניידים נמשך יותר מ -40 דקות.</t>
-  </si>
-  <si>
-    <t>הקנגורו שומר על איזון בעזרת הזנב שלו, כך שאם נרים את זנב הקנגורו מהקרקע, הוא לא יוכל לקפוץ.</t>
-  </si>
-  <si>
-    <t>קנדה ודנמרק נלחמים על השליטה באי האנס ליד גרינלנד כבר למעלה מ -30 שנה. כאשר פקידים מכל מדינה מבקרים באי, הם משאירים בקבוק עם סימן של מדינתם כצעד כוח.</t>
-  </si>
-  <si>
-    <t>הדו"ח האחרון של דיגיטל 2019 מציג כי כל אדם מקדיש  בממוצע 6 שעות ו -42 דקות באינטרנט בכל יום.</t>
-  </si>
-  <si>
-    <t>אוסטרליה רחבה יותר מהירח! קוטר הירח הוא 3400 ק"מ, ואילו הקוטר של אוסטרליה ממזרח למערב הוא כמעט 4000 ק"מ.</t>
-  </si>
-  <si>
-    <t>הסיבה שיש חורים בקרקרים היא כדי למנוע היווצרות בועות שיהרסו את הקרקר בתהליך האפייה.</t>
-  </si>
-  <si>
-    <t>מגדל אייפל נבנה בין השנים 1887-1889 על ידי המהנדס הצרפתי גוסטב אייפל. מאוחר יותר נקרא המגדל על שמו של מר אייפל.</t>
-  </si>
-  <si>
-    <t>השימוש הפופולרי ביותר באינטרנט הוא דואר אלקטרוני. כ- 85% ממשתמשי האינטרנט שולחים ומקבלים דואר אלקטרוני. כ -20 מיליון מיילים נשלחים מדי שבוע.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מיחזור של פחית אלומיניום אחת יכולה לחסוך מספיק אנרגיה כדי להדליק נורה של 100 וואט למשך 20 שעות וטלוויזיה למשך שעתיים. </t>
-  </si>
-  <si>
-    <t>85% מכלל מכירות המוסיקה ביפן הן ברכישות תקליטורים, למרות שמחיר תקליטור ביפן הוא כ-25 דולר.</t>
-  </si>
-  <si>
-    <t>האסטרואיד הגדול ביותר במערכת השמש שלנו הוא פיסת סלע בחלל בשם קרס. שטח הפנים של קרס שווה בערך לשטח היבשה של הודו או ארגנטינה.</t>
-  </si>
-  <si>
     <t>התמונה עם מספר הלייקים הגדול ביותר באינסטגרם היא תמונה של ביצה, שקיבלה למעלה מ 55 מיליון לייקים נכון לדצמבר 2020.</t>
-  </si>
-  <si>
-    <t>לסלמון מגידול משק יש תזונה שונה מזו של סלמון בר ולכן הם לבנים במקום ורודים. הסלמון נצבע ורוד למשוך את הקונים.</t>
-  </si>
-  <si>
-    <t>חוש הריח של הכלב כל כך טוב שהוא יכול לזהות כפית סוכר במיליון ליטרים של מים.</t>
-  </si>
-  <si>
-    <t>בשנת 2016 יותר מ15 מיליון מכשירים המחוברים לאינרטרנט נשלחו ברחבי העולם.</t>
-  </si>
-  <si>
-    <t>התחממות כדור הארץ עלולה לגרום לשינויים בטמפרטורה, מחסור במים, שריפות ועוד. התחממות כדור הארץ מתרחשת כאשר פחמן דו חמצני וגזי חממה נאספים באטמוספרה.</t>
-  </si>
-  <si>
-    <t>לשבתאי יש 62 ירחים מאושרים, מתוכם 9 ממתינים לקבלת שם רשמי. הירח הגדול ביותר של שבתאי, טיטאן, גדול יותר מכוכב חמה ומפלוטו.</t>
-  </si>
-  <si>
-    <t>בטוויטר יש 330 מיליון משתמשים פעילים מדי חודש. מתוך משתמשים אלה 44% פתחו חשבון ועזבו עוד לפני שליחת ציוץ.</t>
-  </si>
-  <si>
-    <t>בלוטות הרוק מייצרות שתיים עד שש כוסות רוק ביום. זה מספיק רוק כדי למלא בקבוק של 2 ליטר!</t>
-  </si>
-  <si>
-    <t>בני אדם משתמשים רק ב -17 שרירים כדי לחייך לעומת 43 השרירים שנדרשים להזעיף פנים. כלומר קל יותר לחייך מאשר להזעיף פנים.</t>
   </si>
   <si>
     <t>environment</t>
@@ -451,186 +241,6 @@
     <t>Venus is the only planet in the entire solar system that rotates clockwise.</t>
   </si>
   <si>
-    <t>000 יענים נבדקו והתגלה שלאורך 80 שנה אף יען לא תקע את ראשו בחול.</t>
-  </si>
-  <si>
-    <t>חתולים בוגרים מייללים רק כדי לתקשר עם בני אדם, הם אינם מייללים כדי לתקשר עם חתולים אחרים.</t>
-  </si>
-  <si>
-    <t>עטלפים יולדים כשהם תלויים הפוך. על האמא לתפוס את התינוק החדש בכנפיה לפני נפילתו לאדמה.</t>
-  </si>
-  <si>
-    <t>וומבט הוא בעל החיים יחיד שמייצר צואה בצורת קובייה. הם נעזרים בערימות כדי לסמן את הטריטוריה. הצורה מונעת מהצואה להתגלגל מהמקום.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חסילון הוא החיה הרועשת בעולם וגבהה רק שני ס"מ! הצליל שהחסילון משמיע כשהוא מקיש בצבתותיו עולה על 218 דציבלים וחזק יותר מרעש של אקדח. </t>
-  </si>
-  <si>
-    <t>האפיפיור בנדיקט התשיעי היה האפיפיור הצעיר ביותר בעולם בגיל 11. הוא שירת כאפיפיור בין השנים 1032 ל1048.</t>
-  </si>
-  <si>
-    <t>ההשערה הייתה כי האש הראשונה שהובערה ע"י אדם הייתה לפני 300,000-400,000 שנה. לאחרונה גילו ארכיאולוגים עקבות של מדורות מלפני מיליון שנה.</t>
-  </si>
-  <si>
-    <t>יותר מ-1,000 שפות שונות מדוברות ביבשת אפריקה.</t>
-  </si>
-  <si>
-    <t>בין השנים 1912 עד 1948 התקיימו במשחקים האולימפיים תחרויות באמנות. מדליות הוענקו לנושאים כמו ספרות, אדריכלות, פיסול, ציור ומוסיקה.</t>
-  </si>
-  <si>
-    <t>אמסטרדם הפכה לבירתה של הולנד רק לאחר נפילתו של נפוליאן בשנת 1815. על אף זאת, האג נשארה העיר הפוליטית החשובה בעולם, לכן ממשלת הולנד עדיין ממוקמת שם.</t>
-  </si>
-  <si>
-    <t>כ204 מיליון אימיילים נשלחים כל דקה באינטרנט. 70% מהאימיילים הנשלחים הם ספאם.</t>
-  </si>
-  <si>
-    <t>עד 300,000 אתרי אינטרנט נפרצים בכל יום. פושעי סייבר נעזרים בתוכנות מחשב משוכללות לפרוץ באופן אוטומטי לאתרים פגיעים.</t>
-  </si>
-  <si>
-    <t>"השיר בייבי שרק" הוא השיר הכי נצפה ביוטיוב. השיר זכה ליותר מ7 מילאירד צפיות מאז העלתו ב2016.</t>
-  </si>
-  <si>
-    <t>האימייל הראשון נשלח בשנת 1971. השולח, היה ממציא האימיילים ריי טומלינסון והוא שלח את האימייל לעצמו.</t>
-  </si>
-  <si>
-    <t>האתר הראשון בעולם הוקם בשנת 1991 ע"י חברת סרן השוויצרית. האתר עדיין מתפקד כיום.</t>
-  </si>
-  <si>
-    <t>משקל האינטרנט זהה למשקלו של תות שדה בודד. המשקל של האינטרנט מורכב ממליארדי אלקטרוני דאטא בתזוזה.</t>
-  </si>
-  <si>
-    <t>כיום האינטרנט דורש 50 מיליון כוחות סוס לריצה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אסיה מדורגת היבשת עם הכי הרבה משתמשים אינטרנטיים בעולם: יותר מ-35% מסכום המשתמשים הכולל. אחריו אירופה בדירוגה השני בעולם, עם 30%, וארה"ב בדירוג השלישי עם כ-20% מסך המשתמשים. </t>
-  </si>
-  <si>
-    <t>ניתן להשתמש באחוז 1 בלבד מכל המים בעולם. 97% מהמים הם מי ים מלוחים ו-2% הם מים קפואים.</t>
-  </si>
-  <si>
-    <t>משוער כי 50,000 מיני בעלי חיים נכחדים מידי שנה ביערות הטרופיים שלנו. לפי השערה זו - 137 מינים בממוצע נכחדים מידי יום.</t>
-  </si>
-  <si>
-    <t>ישנן תחזיות האומרות שלא יהיה קרח בקוטב הצפוני בשנת 2040. אחרים טוענים שהדבר יקרה רק ב2060, ואחרים, רק ב2105.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מתכות רעילות ממכשירים אלקטרוניים שאנחנו זורקים נספגות באדמה, במים ובאטמוספירה. זרמי הפסולת של פסולת אלקטרונית הן המהירות ביותר והמסוכנות ביותר. </t>
-  </si>
-  <si>
-    <t>על פי הערכות מדענים - יש יותר עצים על פני האדמה מאשר כוכבים בשביל החלב. ישנם כ 3.04 טריליון עצים, ואך רק בין 100-400 מיליארד כוכבים.</t>
-  </si>
-  <si>
-    <t>האמנים הכי מושמעים בספוטיפיי בשנת 2019 היו פוסט מלון (עם 6.5 מיליארד צפיות), אחריו בילי אייליש ואריאנה גרנדה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשנת 2020 בילי אייליש זכתה בפרס "גרמי" לאלבום הטוב ביותר, בהיותה בת 18. בילי היא הזוכה הצעירה בעולם בקטגוריה זו. </t>
-  </si>
-  <si>
-    <t>ב2015 אסטרונאוט בשם קריס הדפילד שיחרר את האלבום הראשון שלו. האלבום כולו הוקלט בחלל.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">צמחים יכולים לצמוח בקצב מהיר יותר כשהם שומעים מוזיקה. מחקרים מראים שצמחים מעריכים בעיקר שירים של בטהובן ושופין. </t>
-  </si>
-  <si>
-    <t>הלהקה "Maroon 5" הוקמה לראשונה בשנת 1994, כ"פרחי קארה ". הם שינו את שמם בשנת 2001.</t>
-  </si>
-  <si>
-    <t>טרמיטים אוהבים מוזיקת מטאל. על פי חוקרים אוסטרליים בהאזנה למוזיקת מטאל - טרמיטים יאכלו עץ בקצב מהיר פי 2.</t>
-  </si>
-  <si>
-    <t>לשיר "Rap God" של אמינם יש את השיא העולמי לכמות המילים הגדול ביותר בשיר. בשיר סה"כ 560 מילים. כלומר בממוצע 4.28 מילים לשנייה.</t>
-  </si>
-  <si>
-    <t>בשנת 2016 מוצרט מכר את מספר התקליטים הגדול ביותר בעולם, כמות גדולה יותר מאדל, דרייק וביונסה. הסיבה לכך, היא שבאותה שנה שוחרר אלבום לציון 225 שנה למותו.</t>
-  </si>
-  <si>
-    <t>חברי להקת "הביטלס" לא ידעו לקרוא או לכתוב מוזיקה.</t>
-  </si>
-  <si>
-    <t>האסטרונאוט אלן שפרד חבט שני כדורי גולף על הירח במהלך משימת אפולו 14 בשנת 1971.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לירח אין אטמוספירה, לכן אין אוויר שישחק את האדמה ואין מים שישטפו את הקרקע. מכאן שעקבות אסטרונאוטים יישראו על ירח לאלפי שנים. </t>
-  </si>
-  <si>
-    <t>היצור החי הראשון בחלל היתה כלבה בשם לייקה. היא נלקחה מהרחוב ע"י הרוסים ונשלחה לחלל בחללית ספוטניק 2.</t>
-  </si>
-  <si>
-    <t>מסת השמש מהווה 99.86% מכלל מסת מערכת השמש שלנו. מסתה פי 330,000 מזו של כדור הארץ.</t>
-  </si>
-  <si>
-    <t>ישנה תיאוריה, שלפני שנים רבות גוף ענק פגע בכדוה"א וכתוצאה מהפגיעה שוחרר חלק מכדור הארץ וכך נוצר הירח.</t>
-  </si>
-  <si>
-    <t>ההבדל בין אסטרואיד לשביט הוא ההרכב החומרי. אסטרואידים עשויים בדרך כלל מאבן ומתכת. לעומת זאת כוכב שביט יכול להכיל גם קרח, חומר חלקיקי וחומר אורגני.</t>
-  </si>
-  <si>
-    <t>פלטפורמות המדיה החברתית הפעילות ביותר בשנת 2019 היו פייסבוק, יוטיוב וווי צ'אט.</t>
-  </si>
-  <si>
-    <t>ווי צאט היא פלטפורמת מדיה חברתית סינית, שפותחה מכיוון שפייסבוק, יוטיוב ופלטפורמות מדיה חברתית אחרות אסורות בסין.</t>
-  </si>
-  <si>
-    <t>95% מבני הנוער מחוברים לאינטרנט, ו-85% מהם משתמשים ברשתות חברתיות.</t>
-  </si>
-  <si>
-    <t>למדיה החברתית יש גם פן שלילי. 1 מתוך 10 צעירים הוטרדו באינטרנט בשנה שעברה. הם היו קורבנות להשמצה, לאיומים, לסחיטות ועוד.</t>
-  </si>
-  <si>
-    <t>הצורה הנפוצה ביותר של בריונות ברשת היא השמצה. השמצה כוללת טקסטים פוגעניים או הפצת תמונות וסרטונים.</t>
-  </si>
-  <si>
-    <t>פייסבוק, וואטסאפ ואינסטגרם מנוהלות על ידי אותה חברה. בפייסבוק מסנג'ר ובוואטסאפ נשלחים כ -60 מיליארד הודעות ביום.</t>
-  </si>
-  <si>
-    <t>למעלה מ -40 מיליארד תמונות שותפו באינסטגרם מאז שחרורה בשנת 2010. מעל 95 מיליון תמונות מועלות מדי יום.</t>
-  </si>
-  <si>
-    <t>מספר משתמשי המדיה החברתית גדלה ב -328 מיליון משתמשים בין אוקטובר 2018 לאוקטובר 2019. מדובר בכ -10 משתמשים חדשים ברשתות החברתיות בשנייה.</t>
-  </si>
-  <si>
-    <t>גמבה אדומה, צהובה וירוקה הן אותו ירק בשלבים שונים של התפתחות.</t>
-  </si>
-  <si>
-    <t>שעוות קרנובה, מרכיב מרכזי בשעוות רכב המייצרת ברק מבריק, נמצאת גם בממתקי גומי כדי לגרום להם לזרוח.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מקור העגבניות הינו מקסיקו ולא איטליה (טעות נפוצה). הבלבול כנראה נגרם משימוש בעגבניות במנות איטלקיות רבות כמו פסטה ופיצה. </t>
-  </si>
-  <si>
-    <t>תאריך התפוגה על בקבוק מים הוא בעצם עבור הבקבוק ולא עבור המים. תוקפם של מים לא יכול לפוג אבל תוקפו של בקבוק הפלסטיק בו נמצאים המים - יכול.</t>
-  </si>
-  <si>
-    <t>40% מהרווח של מקדונלדס מגיע ממכירת "האפי מילס" .</t>
-  </si>
-  <si>
-    <t>אם רוצים לבדוק טריות של ביצה - אפשר לשים אותה בכוס מים ולראות אם תצוף. ביצה טרייה תשקע מהר לתחתית הכוס. אם הביצה תצוף - סימן שהיא כבר לא טרייה.</t>
-  </si>
-  <si>
-    <t>בארה"ב, סכום הפיצות הנאכלות מידי יום שווה לפיצה בגודל 4685 מ"ר.  כלומר 350 משולשי פיצה כל שניה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לחברה בן אנד ג'ריס- בית קברות מיוחד לגלידות, ליד אחד ממפעליה בוורמונט, שנועד לקבירת טעמי הגלידה שהפסיקו למכור. הטעמים: ""ווייבי גרייבי"", ""טרטל סופ"" ועוד, כבר קבורים שם. </t>
-  </si>
-  <si>
-    <t>מנהג הרמת כוס  התחילה בתקופת הרומאים. באותה תקופה, נהגו רומאים רבים להרעיל זה את זה. בהרמת כוס בעוצמה רבה - חלק מהמשקה מועבר מכוס לכוס וכך השותה מוודא שמשקעו לא הורעל.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">המוח הוא איבר מקומט מאוד! אם פורשים אותו, המוח יהיה בערך בגודל ציפית של כרית. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">לזיעה אין באמת ריח רע. הריח הרע הוא כתוצאה מחיידקי העור שניזונים מהזיעה ומפרישים פסולת מסריחה. </t>
-  </si>
-  <si>
-    <t>המח שלנו צורך כ-25 וואט בזמן שאנו ערים. זה מספיק מתח כדי להדליק נורה.</t>
-  </si>
-  <si>
-    <t>מחקר משנת 2003 מראה ירידה של 18 אחוז בגודל הסינפסות שלנו לאחר מספר שעות שינה. כלומר בזמן שאנחנו ישנים המוח שלנו מתכווץ.</t>
-  </si>
-  <si>
-    <t>כשאדם בן שש, המוח שלו ב-90 אחוז מהגודל שיהיה בגיל מבוגר.</t>
-  </si>
-  <si>
     <t>Dolphins can look in different directions with each eye.\n They can also sleep with one eye open.</t>
   </si>
   <si>
@@ -995,13 +605,403 @@
     <t>One in ten young people were bullied on the internet last year. \nThey were victims of slander, stalking, threats and blackmail.</t>
   </si>
   <si>
-    <t>תינוקות נולדים ללא פיקת ברכיים. הן לא מופיעות עד שהילד בין שנתיים ל-6 שנים.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גוגל מעבדת עד 100 מיליארד חיפושים בחודש! כלומר בכל שניה מתבצעים בממוצע 40,000 חיפושים. </t>
-  </si>
-  <si>
-    <t>אלברט איינשטיין היה יהודי. \n אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב.</t>
+    <t>\nאלברט איינשטיין היה יהודי \n אמנם לא היה אזרח ישראלי, אך בשנת 1952 הוצע לו להיות ראש ממשלת ישראל וסירב</t>
+  </si>
+  <si>
+    <t>\nהאפיפיור בנדיקט התשיעי היה האפיפיור הצעיר ביותר בעולם בגיל 11 \n הוא שירת כאפיפיור בין השנים 1032 ל1048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\nמיחזור של פחית אלומיניום אחת יכולה לחסוך מספיק אנרגיה \nכדי להדליק נורה של 100 וואט למשך 20 שעות וטלוויזיה למשך שעתיים. </t>
+  </si>
+  <si>
+    <t>\n דולפינים יכולים להסתכל לשני כיוונים שונים בו זמנית, כל עין לכיוון אחר \nהם גם יכולים לישון עם עין אחת פתוחה</t>
+  </si>
+  <si>
+    <t>\n חוש הריח של הכלב כל כך טוב שהוא יכול לזהות כפית סוכר במיליון ליטרים של מים</t>
+  </si>
+  <si>
+    <t>\n משקלו של פיל נע בין 2700 ל6000 ק"ג. הפיל הוא החיה היחידה בעולם שלא יכולה לקפוץ</t>
+  </si>
+  <si>
+    <t>\n לדב קואלה טביעת אצבע כמעט זהה לזו של בני אדם. העובדה הטעתה את המשטרה כבר מספר פעמים בעבר</t>
+  </si>
+  <si>
+    <t>\n עטלפים יולדים כשהם תלויים הפוך \n על האמא לתפוס את התינוק החדש בכנפיה לפני נפילתו לאדמה</t>
+  </si>
+  <si>
+    <t>\n ג'ירפות וחולדות יכולות לשרוד בלי מים לתקופה ארוכה יותר מגמלים</t>
+  </si>
+  <si>
+    <t>\n וומבט הוא בעל החיים יחיד שמייצר צואה בצורת קובייה \nהם נעזרים בערימות כדי לסמן את הטריטוריה, הצורה מונעת מהצואה להתגלגל מהמקום</t>
+  </si>
+  <si>
+    <t>\n העובדה ששפריריות יכולות לעוף עד מהירות של תשעים ושישה ק"מש הופכת אותן לחרק המהיר ביותר בעולם\n  זה חשוב כי אורך החיים שלהן הוא רק כ-עשרים וארבע שעות</t>
+  </si>
+  <si>
+    <t>\n פלמינגו הוא לא באמת חיה ורודה, הפלמינגו נולד בצבע אפרפר וכתוצאה מצבע המאכלים שנוהג לאכול \n כמו שרימפס ואצה, הנוצות שלו מקבלות פיגמנט ורוד</t>
+  </si>
+  <si>
+    <t>\n חסילון הוא החיה הרועשת בעולם וגבהה רק שני ס"מ! הצליל שהחסילון משמיע כשהוא מקיש בצבתותיו \n עולה על 218 דציבלים וחזק יותר מרעש של אקדח</t>
+  </si>
+  <si>
+    <t>\n הקנגורו שומר על איזון בעזרת הזנב שלו \n כך שאם נרים את זנב הקנגורו מהקרקע, הוא לא יוכל לקפוץ</t>
+  </si>
+  <si>
+    <t>\n פלטפורמות המדיה החברתית הפעילות ביותר בשנת 2019 היו פייסבוק, יוטיוב וווי צ'אט</t>
+  </si>
+  <si>
+    <t>\n ב-14 (ארבעה עשר) בפברואר 2019 - יוטיוב חגגה 15 (חמש עשרה) שנים להיווסדה \n עובדה שרבים לא יודעים היא כי יוטיוב פותחה לראשונה כאתר היכרויות</t>
+  </si>
+  <si>
+    <t>\n בשנת 2020 "טי סיריס" תהיה סדרת היוטיוב הפופולרית ביותר בעולם \n השם אולי לא מוכר לכם, זאת מכיוון שמדובר בלייבל מוזיקה מהודו</t>
+  </si>
+  <si>
+    <t>\n למדיה החברתית יש גם פן שלילי. 1 מתוך 10 צעירים הוטרדו באינטרנט בשנה שעברה \n הם היו קורבנות להשמצה, לאיומים, לסחיטות ועוד</t>
+  </si>
+  <si>
+    <t>\n בטוויטר יש 330 מיליון משתמשים פעילים מדי חודש \n מתוך משתמשים אלה 44% פתחו חשבון ועזבו עוד לפני שליחת ציוץ</t>
+  </si>
+  <si>
+    <t>\n פייסבוק, וואטסאפ ואינסטגרם מנוהלות על ידי אותה חברה \n בפייסבוק מסנג'ר ובוואטסאפ נשלחים כ -60 מיליארד הודעות ביום</t>
+  </si>
+  <si>
+    <t>\n יותר ממחצית הצפיות ב- YouTube מגיעות ממכשירים ניידים \n משך הצפייה הממוצע בניידים נמשך יותר מ -40 דקות</t>
+  </si>
+  <si>
+    <t>\n בממוצע, לכל אדם 7.6 חשבונות מדיה חברתית</t>
+  </si>
+  <si>
+    <t>\n מספר משתמשי המדיה החברתית גדלה ב -328 מיליון משתמשים בין אוקטובר 2018 לאוקטובר 2019. מדובר\n בכ -10 משתמשים חדשים ברשתות החברתיות בשנייה</t>
+  </si>
+  <si>
+    <t>\n המגדל הנטוי של פיזה לעולם לא עמד זקוף. הוא תוכנן זקוף אך התחיל להטות כבר בשלבי הבניה</t>
+  </si>
+  <si>
+    <t>\n ביוון העתיקה, לבישת חצאית נחשבה כגברית ולבישת מכנסיים נחשבה לנשית</t>
+  </si>
+  <si>
+    <t>\n יום העצמאות ההולנדית נחגגת ב-5 למאי, אפילו שהולנד לא באמת שוחררה ביום אחד \n העיר סכירמוניקוג שוחררה רק ביוני לאחר תום מלחמת העולם השניה</t>
+  </si>
+  <si>
+    <t>\n הדגל האמריקני הנוכחי תוכנן על ידי תלמיד תיכון. הפרויקט זכה רק בציון 80 אך לאחר\n אישור התכנון לדגל אמריקה - המורה שינה את הציון ל100</t>
+  </si>
+  <si>
+    <t>\n ההשערה הייתה כי האש הראשונה שהובערה ע"י אדם הייתה לפני 300,000-400,000 שנה \n לאחרונה גילו ארכיאולוגים עקבות של מדורות מלפני מיליון שנה</t>
+  </si>
+  <si>
+    <t>\n מספרים ערביים הם לא באמת בערבית. המספרים הומצאו בהודו</t>
+  </si>
+  <si>
+    <t>\n קנדה ודנמרק נלחמים על השליטה באי האנס ליד גרינלנד כבר למעלה מ -30 שנה \n כאשר פקידים מכל מדינה מבקרים באי, הם משאירים בקבוק עם סימן של מדינתם כצעד כוח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n האימפריה הבריטית הייתה האימפריה הגדולה ביותר בתולדות העולם. האימפריה הבריטית הייתה החזקה ביותר \n בשנות העשרים של המאה העשרים כאשר שלטה על 23 אחוז מאוכלוסיית העולם. </t>
+  </si>
+  <si>
+    <t>\n מגדל אייפל נבנה בין השנים 1887-1889 על ידי המהנדס הצרפתי גוסטב אייפל \n מאוחר יותר נקרא המגדל על שמו של מר אייפל</t>
+  </si>
+  <si>
+    <t>\n יותר מ-1,000 שפות שונות מדוברות ביבשת אפריקה</t>
+  </si>
+  <si>
+    <t>\nבין השנים 1912 עד 1948 התקיימו במשחקים האולימפיים תחרויות באמנות \n מדליות הוענקו לנושאים כמו ספרות, אדריכלות, פיסול, ציור ומוסיקה</t>
+  </si>
+  <si>
+    <t>\n אמסטרדם הפכה לבירתה של הולנד רק לאחר נפילתו של נפוליאן בשנת 1815. על אף זאת, האג נשארה \n העיר הפוליטית החשובה בעולם, לכן ממשלת הולנד עדיין ממוקמת שם</t>
+  </si>
+  <si>
+    <t>\n כ204 מיליון אימיילים נשלחים כל דקה באינטרנט. 70% מהאימיילים הנשלחים הם ספאם</t>
+  </si>
+  <si>
+    <t>\n גוגל מעבדת עד 100 מיליארד חיפושים בחודש! כלומר בכל שניה מתבצעים בממוצע 40,000 חיפושים</t>
+  </si>
+  <si>
+    <t>\n עד 300,000 אתרי אינטרנט נפרצים בכל יום \n פושעי סייבר נעזרים בתוכנות מחשב משוכללות לפרוץ באופן אוטומטי לאתרים פגיעים</t>
+  </si>
+  <si>
+    <t>\n השיר בייבי שרק הוא השיר הכי נצפה ביוטיוב. השיר זכה ליותר מ7 מילאירד צפיות מאז העלתו ב2016</t>
+  </si>
+  <si>
+    <t>\n האימייל הראשון נשלח בשנת 1971. השולח, היה ממציא האימיילים \n ריי טומלינסון והוא שלח את האימייל לעצמו</t>
+  </si>
+  <si>
+    <t>\n האתר הראשון בעולם הוקם בשנת 1991 ע"י חברת סרן השוויצרית \n האתר עדיין מתפקד כיום</t>
+  </si>
+  <si>
+    <t>\n משקל האינטרנט זהה למשקלו של תות שדה בודד \n המשקל של האינטרנט מורכב ממליארדי אלקטרוני דאטא בתזוזה</t>
+  </si>
+  <si>
+    <t>\n הדו"ח האחרון של דיגיטל 2019 מציג כי כל אדם מקדיש \n בממוצע 6 שעות ו -42 דקות באינטרנט בכל יום</t>
+  </si>
+  <si>
+    <t>\n סרטון הרשת הראשון הוא מאוניברסיטת קיימברידג'. נושא הסרטון היה סיר של קפה</t>
+  </si>
+  <si>
+    <t>\n בית חכם הוא בית המחובר לאינטרנט וניתן לשלוט באביזרים בבית באמצעות מכשירים אישיים \n ישנם כיום 150 מיליון בתים חכמים ברחבי העולם</t>
+  </si>
+  <si>
+    <t>\n כיום האינטרנט דורש 50 מיליון כוחות סוס לריצה</t>
+  </si>
+  <si>
+    <t>\n כמות המכשירים המחוברים לאינטרנט גדולה מכמות האנשים בעולם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n אסיה מדורגת היבשת עם הכי הרבה משתמשים אינטרנטיים בעולם: יותר מ-35% מסכום המשתמשים הכולל\n  אחריו אירופה בדירוגה השני בעולם, עם 30%, וארה"ב בדירוג השלישי עם כ-20% מסך המשתמשים. </t>
+  </si>
+  <si>
+    <t>\n פלוץ של פרה פוגעת בסביבה יותר מכל חיה אחרת- כיוון שהרכב גז המתאן חזק פי 20 מפחמן דו חמצני</t>
+  </si>
+  <si>
+    <t>\n פארקים וסביבות "ירוקות" אחרות יכולים להפחית חרדות, מתח ותסמינים של הפרעות קשב וריכוז\n ולקדם את בריאות הנפש הכללית</t>
+  </si>
+  <si>
+    <t>\n ניתן להשתמש באחוז 1 בלבד מכל המים בעולם. 97% מהמים הם מי ים מלוחים ו-2% הם מים קפואים</t>
+  </si>
+  <si>
+    <t>\n משוער כי 50,000 מיני בעלי חיים נכחדים מידי שנה ביערות הטרופיים שלנו \n לפי השערה זו - 137 מינים בממוצע נכחדים מידי יום</t>
+  </si>
+  <si>
+    <t>\n ניתן למחזר נייר עד 6 פעמים. לאחר מכן הסיבים חלשים מכדי להחזיק אותו</t>
+  </si>
+  <si>
+    <t>\n ישנן תחזיות האומרות שלא יהיה קרח בקוטב הצפוני בשנת 2040. אחרים טוענים \n שהדבר יקרה רק ב2060, ואחרים, רק ב2105</t>
+  </si>
+  <si>
+    <t>\n מתכות רעילות ממכשירים אלקטרוניים שאנחנו זורקים נספגות באדמה, במים ובאטמוספירה \n זרמי הפסולת של פסולת אלקטרונית הן המהירות ביותר והמסוכנות ביותר</t>
+  </si>
+  <si>
+    <t>\n האבק ממדבר סהרה עובר מעל האוקיאנוס האטלנטי עד ליער האמזונס בצד השני של העולם \n יער הגשם של האמזונס תלוי בזרחן שבאבק על מנת לפרוח</t>
+  </si>
+  <si>
+    <t>\n באוקיינוס התגלתה סוג אבן חדשה שנוצרה משאריות פלסטיק</t>
+  </si>
+  <si>
+    <t>\n חקלאות אורגנית אינה תמיד טובה יותר לסביבה מחקלאות קונבנציונלית\n הסיבה נובעת באופן חלקי מתפוקת יבול נמוכה יותר ושימוש בחומרי הדברה "טבעיים" רעילים</t>
+  </si>
+  <si>
+    <t>\n פני כדור הארץ מורכב מכ-60% מים ו-10% קרח</t>
+  </si>
+  <si>
+    <t>\n בכל יום נכרתים 27,000 עצים לייצור נייר טואלט</t>
+  </si>
+  <si>
+    <t>\n על פי הערכות מדענים - יש יותר עצים על פני האדמה מאשר כוכבים בשביל החלב \n ישנם כ 3.04 טריליון עצים, ואך רק בין 100-400 מיליארד כוכבים</t>
+  </si>
+  <si>
+    <t>\n התחממות כדור הארץ עלולה לגרום לשינויים בטמפרטורה, מחסור במים, שריפות ועוד \n התחממות כדור הארץ מתרחשת כאשר פחמן דו חמצני וגזי חממה נאספים באטמוספרה</t>
+  </si>
+  <si>
+    <t>\n האמנים הכי מושמעים בספוטיפיי בשנת 2019 היו פוסט מלון עם 6.5 מיליארד צפיות \n אחריו בילי אייליש ואריאנה גרנדה</t>
+  </si>
+  <si>
+    <t>\n בשנת 2020 בילי אייליש זכתה בפרס "גרמי" לאלבום הטוב ביותר, בהיותה בת שמונה עשרה \n בילי היא הזוכה הצעירה בעולם בקטגוריה זו</t>
+  </si>
+  <si>
+    <t>\n שמונים וחמישה אחוזים מכלל מכירות המוסיקה ביפן הן ברכישות תקליטורים \n למרות שמחיר תקליטור ביפן הוא כ-25 דולר</t>
+  </si>
+  <si>
+    <t>\n ב2015 אסטרונאוט בשם קריס הדפילד שיחרר את האלבום הראשון שלו \n האלבום כולו הוקלט בחלל</t>
+  </si>
+  <si>
+    <t>\n מחקר מ2013 מראה כי מוזיקה עוזרת לאנשים עם פגיעות שכליות לזכור זכרונות אישיים</t>
+  </si>
+  <si>
+    <t>\n תשעים וחמישה אחוזים מבני הנוער מחוברים לאינטרנט, ושמונים וחמישה מהם משתמשים ברשתות חברתיות</t>
+  </si>
+  <si>
+    <t>\n תוחלת החיים של אמן נמוכה ב-25 שנה מהממוצע \n הסיבה לכך היא שמוסיקאים רבים סובלים מדיכאון ומנהלים חיים קשים</t>
+  </si>
+  <si>
+    <t>\n צמחים יכולים לצמוח בקצב מהיר יותר כשהם שומעים מוזיקה \n מחקרים מראים שצמחים מעריכים בעיקר שירים של בטהובן ושופין</t>
+  </si>
+  <si>
+    <t>\n טרמיטים אוהבים מוזיקת מטאל. על פי חוקרים אוסטרליים בהאזנה למוזיקת מטאל \n טרמיטים יאכלו עץ בקצב מהיר פי 2</t>
+  </si>
+  <si>
+    <t>\n בשנת 2008 גילו חוקרים כי מוסיקה רועשת גורמת לאנשים לשתות מהר יותר</t>
+  </si>
+  <si>
+    <t>\n למוצרט מותג שוקולד שנקרא על שמו בשם מוצרטקוגל או כדור מוצרט. השוקולד פופולרי מאוד באוסטריה</t>
+  </si>
+  <si>
+    <t>\n מחקרים מראים כי בהאזנה למוזיקה, תינוקות נרגעים הרבה יותר מהאזנה לקול אדם \n תינוקות מעדיפים בעיקר מוזיקה שקטה, כגון: שירי ילדים, מוזיקה קלאסית וג'אז</t>
+  </si>
+  <si>
+    <t>\n לשיר "Rap God" של אמינם יש את השיא העולמי לכמות המילים הגדול ביותר בשיר \n בשיר סה"כ 560 מילים. כלומר בממוצע 4.28 מילים לשנייה</t>
+  </si>
+  <si>
+    <t>\n בשנת 2016 מוצרט מכר את מספר התקליטים הגדול ביותר בעולם, כמות גדולה יותר מאדל, דרייק וביונסה \n הסיבה לכך, היא שבאותה שנה שוחרר אלבום לציון 225 שנה למותו</t>
+  </si>
+  <si>
+    <t>\n חברי להקת "הביטלס" לא ידעו לקרוא או לכתוב מוזיקה</t>
+  </si>
+  <si>
+    <t>\n נצנוץ הכוכבים נגרם ע"י הבדלים בטמפרטורת האטמוספירה, המשפיעים על שבירת האור</t>
+  </si>
+  <si>
+    <t>\n האסטרונאוט אלן שפרד חבט שני כדורי גולף על הירח במהלך משימת אפולו 14 בשנת 1971</t>
+  </si>
+  <si>
+    <t>\n אוסטרליה רחבה יותר מהירח! קוטר הירח הוא 3400 ק"מ \n ואילו הקוטר של אוסטרליה ממזרח למערב הוא כמעט 4000 ק"מ</t>
+  </si>
+  <si>
+    <t>\n כדור הארץ, הוא כוכב הלכת היחיד במערכת השמש שלנו שלא נקרא על שם אל</t>
+  </si>
+  <si>
+    <t>\n לירח אין אטמוספירה, לכן אין אוויר שישחק את האדמה ואין מים שישטפו את הקרקע \n מכאן שעקבות אסטרונאוטים יישראו על ירח לאלפי שנים</t>
+  </si>
+  <si>
+    <t>\n היצור החי הראשון בחלל היתה כלבה בשם לייקה \n היא נלקחה מהרחוב ע"י הרוסים ונשלחה לחלל בחללית ספוטניק 2</t>
+  </si>
+  <si>
+    <t>\n מסת השמש מהווה 99.86% מכלל מסת מערכת השמש שלנו \n מסתה פי 330,000 מזו של כדור הארץ</t>
+  </si>
+  <si>
+    <t>\n ישנה תיאוריה, שלפני שנים רבות גוף ענק פגע בכדוה"א \n וכתוצאה מהפגיעה שוחרר חלק מכדור הארץ וכך נוצר הירח</t>
+  </si>
+  <si>
+    <t>\n במשך שנים, האמינו כי כדור הארץ הוא כוכב הלכת היחיד במערכת השמש שלנו עם מים נוזליים\n לאחרונה נאס"א חשפה שמידי פעם יש מים זורמים גם במאדים</t>
+  </si>
+  <si>
+    <t>\n הודות להדפסה תלת ממדית, נאס"א יכולה בעצם "לשלוח" כלים לאסטרונאוטים\n הכלים הדרושים מתוכננים ונשלחים למדפסות התלת מימד להדפסה בחלל</t>
+  </si>
+  <si>
+    <t>\n נוגה הוא כוכב הלכת היחיד במערכת השמש שלנו שמסתובב עם כיוון השעון</t>
+  </si>
+  <si>
+    <t>\n ההבדל בין אסטרואיד לשביט הוא ההרכב החומרי. אסטרואידים עשויים בדרך כלל מאבן ומתכת \n לעומת זאת כוכב שביט יכול להכיל גם קרח, חומר חלקיקי וחומר אורגני</t>
+  </si>
+  <si>
+    <t>\n נפח הירח של כדור הארץ זהה לנפח האוקיינוס השקט</t>
+  </si>
+  <si>
+    <t>\n לשבתאי יש 62 ירחים מאושרים, מתוכם 9 ממתינים לקבלת שם רשמי \n הירח הגדול ביותר של שבתאי, טיטאן, גדול יותר מכוכב חמה ומפלוטו</t>
+  </si>
+  <si>
+    <t>\n בשנות ה1830 קטשופ נמכר כתרופה. טענו כי קטשופ מרפא כל דבר \n החל מקרחת וכלה בפריחות ואינפקציות</t>
+  </si>
+  <si>
+    <t>\n גמבה אדומה, צהובה וירוקה הן אותו ירק בשלבים שונים של התפתחות</t>
+  </si>
+  <si>
+    <t>\n שעוות קרנובה, מרכיב מרכזי בשעוות רכב המייצרת ברק מבריק \n נמצאת גם בממתקי גומי כדי לגרום להם לזרוח</t>
+  </si>
+  <si>
+    <t>\n ישנם כ-450 זני גבינה בעולם. 240 מהם מצרפת</t>
+  </si>
+  <si>
+    <t>\n יותר אנשים אלרגיים לחלב פרה מכל מזון אחר \n במיוחד באסיה, אנשים סובלים מכך מכיוון שחסר להם אינזים מסוים</t>
+  </si>
+  <si>
+    <t>\n הסיבה שיש חורים בקרקרים היא כדי למנוע היווצרות בועות שיהרסו את הקרקר בתהליך האפייה</t>
+  </si>
+  <si>
+    <t>\n לסלמון מגידול משק יש תזונה שונה מזו של סלמון בר ולכן הם לבנים במקום ורודים \n הסלמון נצבע ורוד למשוך את הקונים</t>
+  </si>
+  <si>
+    <t>\n מקור העגבניות הינו מקסיקו ולא איטליה טעות נפוצה \n הבלבול כנראה נגרם משימוש בעגבניות במנות איטלקיות רבות כמו פסטה ופיצה</t>
+  </si>
+  <si>
+    <t>\n תאריך התפוגה על בקבוק מים הוא בעצם עבור הבקבוק ולא עבור המים \n תוקפם של מים לא יכול לפוג אבל תוקפו של בקבוק הפלסטיק בו נמצאים המים - יכול</t>
+  </si>
+  <si>
+    <t>\n שוקלד יכול להרוג כלבים. הוא משפיע ישירות על הלב ומערכת העצבים שלהם</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \n ארבעים אחוז מהרווח של מקדונלדס מגיע ממכירת האפי מילס</t>
+  </si>
+  <si>
+    <t>\n אם רוצים לבדוק טריות של ביצה - אפשר לשים אותה בכוס מים ולראות אם תצוף \n ביצה טרייה תשקע מהר לתחתית הכוס. אם הביצה תצוף - סימן שהיא כבר לא טרייה</t>
+  </si>
+  <si>
+    <t>\n בארה"ב, סכום הפיצות הנאכלות מידי יום שווה לפיצה בגודל 4685 מ"ר \n כלומר 350 משולשי פיצה כל שניה</t>
+  </si>
+  <si>
+    <t>\n לחברה בן אנד ג'ריס- בית קברות מיוחד לגלידות, ליד אחד ממפעליה בוורמונט, שנועד לקבירת טעמי הגלידה שהפסיקו למכור \n הטעמים: ""ווייבי גרייבי"", ""טרטל סופ"" ועוד, כבר קבורים שם</t>
+  </si>
+  <si>
+    <t>\n מנהג הרמת כוס התחילה בתקופת הרומאים. באותה תקופה, נהגו רומאים רבים להרעיל זה את זה \n בהרמת כוס בעוצמה רבה - חלק מהמשקה מועבר מכוס לכוס וכך השותה \n מוודא שמשקעו לא הורעל.</t>
+  </si>
+  <si>
+    <t>\n לספגטי בודד קוראים ספגטו</t>
+  </si>
+  <si>
+    <t>\n תינוקות נולדים ללא פיקת ברכיים. הן לא מופיעות עד שהילד בין שנתיים ל-6 שנים</t>
+  </si>
+  <si>
+    <t>\n תאי מוח יכולים להתרבות עד 250,000 פעמים בדקה במהלך תחילת הריון</t>
+  </si>
+  <si>
+    <t>\n המוח הוא איבר מקומט מאוד! אם פורשים אותו, המוח יהיה בערך בגודל ציפית של כרית</t>
+  </si>
+  <si>
+    <t>\n לזיעה אין באמת ריח רע. הריח הרע הוא כתוצאה מחיידקי העור שניזונים מהזיעה ומפרישים פסולת מסריחה</t>
+  </si>
+  <si>
+    <t>\n בלוטות הרוק מייצרות שתיים עד שש כוסות רוק ביום \n זה מספיק רוק כדי למלא בקבוק של 2 ליטר</t>
+  </si>
+  <si>
+    <t>\n המח שלנו צורך כ-25 וואט בזמן שאנו ערים. זה מספיק מתח כדי להדליק נורה</t>
+  </si>
+  <si>
+    <t>\n עשרים וחמישה אחוזים מעצמות בני האדם נמצאים ברגליו \n הרגל נחשבת מורכבת כל כך מכיוון שהיא חייבת להיות מסוגלת לשאת את כל משקלו של האדם</t>
+  </si>
+  <si>
+    <t>\n אדם נולד עם 300 עצמות, אך בגיל מבוגר יש לו רק 206</t>
+  </si>
+  <si>
+    <t>\n אנשים משתמשים בכ-72 שרירים שונים כדי לדבר</t>
+  </si>
+  <si>
+    <t>\n מחקר משנת 2003 מראה ירידה של 18 אחוז בגודל הסינפסות שלנו לאחר מספר שעות שינה \n כלומר בזמן שאנחנו ישנים המוח שלנו מתכווץ</t>
+  </si>
+  <si>
+    <t>\n כשאדם בן שש, המוח שלו ב-90 אחוז מהגודל שיהיה בגיל מבוגר</t>
+  </si>
+  <si>
+    <t>\n בני אדם משתמשים רק ב -17 שרירים כדי לחייך לעומת 43 השרירים שנדרשים להזעיף פנים \n כלומר קל יותר לחייך מאשר להזעיף פנים</t>
+  </si>
+  <si>
+    <t>\n המח האנושי הוא כ-75% מים</t>
+  </si>
+  <si>
+    <t>\n הלב דופק יותר מ100,000 פעמים ביום</t>
+  </si>
+  <si>
+    <t>\n בדיוק כמו טביעת אצבע- טביעת לשון של כל אדם שונה</t>
+  </si>
+  <si>
+    <t>\n בשנת 2016 יותר מ15 מיליון מכשירים המתחברים לאינרטרנט נשלחו ברחבי העולם</t>
+  </si>
+  <si>
+    <t>\n השימוש הפופולרי ביותר באינטרנט הוא דואר אלקטרוני \n כ- 85% ממשתמשי האינטרנט שולחים ומקבלים דואר אלקטרוני \n כ -20 מיליון מיילים נשלחים מדי שבוע</t>
+  </si>
+  <si>
+    <t>\n מאתיים אלף יענים נבדקו והתגלה שלאורך 80 שנה אף יען לא תקע את ראשו בחול</t>
+  </si>
+  <si>
+    <t>\n חתולים בוגרים מייללים רק כדי לתקשר עם בני אדם \n הם אינם מייללים כדי לתקשר עם חתולים אחרים</t>
+  </si>
+  <si>
+    <t>\n הלהקה מארון פייב הוקמה לראשונה בשנת 1994, כפרחי קארה \n הם שינו את שמם בשנת 2001</t>
+  </si>
+  <si>
+    <t>\n עד 750 מ"ל דם נשאב דרך המוח בכל דקה\n  זה בערך בין 15-20% מהדם שמגיע מהלב</t>
+  </si>
+  <si>
+    <t>\n האסטרואיד הגדול ביותר במערכת השמש שלנו הוא פיסת סלע בשם קרס \n שטח הפנים של קרס שווה בערך לשטח היבשה של הודו או ארגנטינה</t>
+  </si>
+  <si>
+    <t>\n ווי צאט היא פלטפורמת מדיה חברתית סינית, שפותחה מכיוון שפייסבוק \n יוטיוב ופלטפורמות מדיה חברתית אחרות אסורות בסין</t>
+  </si>
+  <si>
+    <t>\n בכל יום מועלות ליוטיוב סך של 80,000 שעות צילומי וידיאו. רובם הם סרטונים של חיות מחמד</t>
+  </si>
+  <si>
+    <t>\n הצורה הנפוצה ביותר של בריונות ברשת היא השמצה \n השמצה כוללת טקסטים פוגעניים או הפצת תמונות וסרטונים</t>
+  </si>
+  <si>
+    <t>\n למעלה מ -40 מיליארד תמונות שותפו באינסטגרם מאז שחרורה בשנת 2010 \n מעל 95 מיליון תמונות מועלות מדי יום</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1453,6 +1453,96 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1462,95 +1552,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,7 +1844,7 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView zoomScale="67" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
@@ -1904,46 +1907,46 @@
     </row>
     <row r="2" spans="1:28" ht="285" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -1951,92 +1954,92 @@
     </row>
     <row r="3" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>2</v>
@@ -2045,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="29"/>
       <c r="Y4" s="1"/>
@@ -2055,52 +2058,52 @@
     </row>
     <row r="5" spans="1:28" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>225</v>
-      </c>
       <c r="N5" s="26" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="Z5" s="1"/>
@@ -2109,49 +2112,49 @@
     </row>
     <row r="6" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>229</v>
-      </c>
       <c r="D6" s="21" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="P6" s="32" t="s">
         <v>9</v>
@@ -2161,52 +2164,52 @@
     </row>
     <row r="7" spans="1:28" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="Y7" s="1"/>
@@ -2215,49 +2218,49 @@
     </row>
     <row r="8" spans="1:28" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>288</v>
+        <v>158</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -2265,52 +2268,52 @@
     </row>
     <row r="9" spans="1:28" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="31" t="s">
         <v>6</v>
@@ -2319,55 +2322,55 @@
     </row>
     <row r="10" spans="1:28" ht="285" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>298</v>
+        <v>168</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="41" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2381,551 +2384,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449B4987-24CE-40C9-AE43-0C2DF0653AF4}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="46">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="43">
         <v>1</v>
       </c>
-      <c r="D1" s="46">
+      <c r="D1" s="43">
         <v>2</v>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="43">
         <v>3</v>
       </c>
-      <c r="F1" s="46">
+      <c r="F1" s="43">
         <v>4</v>
       </c>
-      <c r="G1" s="46">
+      <c r="G1" s="43">
         <v>5</v>
       </c>
-      <c r="H1" s="46">
+      <c r="H1" s="43">
         <v>6</v>
       </c>
-      <c r="I1" s="46">
+      <c r="I1" s="43">
         <v>7</v>
       </c>
-      <c r="J1" s="47">
+      <c r="J1" s="44">
         <v>8</v>
       </c>
-      <c r="K1" s="47">
+      <c r="K1" s="44">
         <v>9</v>
       </c>
-      <c r="L1" s="47">
+      <c r="L1" s="44">
         <v>10</v>
       </c>
-      <c r="M1" s="47">
+      <c r="M1" s="44">
         <v>11</v>
       </c>
-      <c r="N1" s="47">
+      <c r="N1" s="44">
         <v>12</v>
       </c>
-      <c r="O1" s="47">
+      <c r="O1" s="44">
         <v>13</v>
       </c>
-      <c r="P1" s="47">
+      <c r="P1" s="44">
         <v>14</v>
       </c>
-      <c r="Q1" s="47">
+      <c r="Q1" s="44">
         <v>15</v>
       </c>
-      <c r="R1" s="47">
+      <c r="R1" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="236.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
+      <c r="B2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
     </row>
-    <row r="3" spans="1:18" ht="288.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:18" ht="301.89999999999998" x14ac:dyDescent="0.45">
+      <c r="A3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="B3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
     </row>
     <row r="4" spans="1:18" ht="301.89999999999998" x14ac:dyDescent="0.45">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" s="64"/>
+      <c r="B4" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" s="61"/>
     </row>
-    <row r="5" spans="1:18" ht="255" x14ac:dyDescent="0.45">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:18" ht="267.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" s="56"/>
+      <c r="B5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="R5" s="53"/>
     </row>
     <row r="6" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q6" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="R6" s="56"/>
+      <c r="B6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q6" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:18" ht="255" x14ac:dyDescent="0.45">
+      <c r="A7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="P7" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="56"/>
+      <c r="B7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q7" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="R7" s="53"/>
     </row>
     <row r="8" spans="1:18" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
     </row>
     <row r="9" spans="1:18" ht="275.64999999999998" x14ac:dyDescent="0.45">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="P9" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q9" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>52</v>
+      <c r="B9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="216.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:18" ht="223.15" x14ac:dyDescent="0.45">
+      <c r="A10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="N10" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="O10" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="R10" s="62" t="s">
-        <v>62</v>
+      <c r="B10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="R10" s="59" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2956,136 +2959,136 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
+        <v>50</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
